--- a/data/trans_orig/P79A2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P79A2_2023-Provincia-trans_orig.xlsx
@@ -896,7 +896,7 @@
         <v>3982</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3404060042055685</v>
+        <v>0.3404060042055686</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>4130</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1483</v>
+        <v>1886</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>4834</v>
@@ -920,7 +920,7 @@
         <v>0.8543862670770247</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3068593163345202</v>
+        <v>0.3902060123041144</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -932,19 +932,19 @@
         <v>5486</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1986</v>
+        <v>1969</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8100</v>
+        <v>8094</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6222380218594725</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2252708772346496</v>
+        <v>0.2232783636687221</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.918657419141251</v>
+        <v>0.9180422432509691</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         <v>3982</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6595939957944313</v>
+        <v>0.6595939957944315</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3351</v>
+        <v>2948</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1456137329229754</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6931406836654861</v>
+        <v>0.6097939876958857</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -1003,19 +1003,19 @@
         <v>3331</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6847</v>
+        <v>6927</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3777619781405276</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08227725864684651</v>
+        <v>0.08237980136144113</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7765194997251185</v>
+        <v>0.7856544476635315</v>
       </c>
     </row>
     <row r="9">
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4461</v>
+        <v>5100</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2819369576638927</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6852108886557111</v>
+        <v>0.7834431899027241</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3852</v>
+        <v>4007</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1625899455033065</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5301180413736137</v>
+        <v>0.5514268003570936</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1149,19 +1149,19 @@
         <v>3017</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>816</v>
+        <v>655</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6621</v>
+        <v>6087</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2189866509574722</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05922480244200725</v>
+        <v>0.0475434203727475</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4805828895204278</v>
+        <v>0.4418504728457471</v>
       </c>
     </row>
     <row r="11">
@@ -1178,7 +1178,7 @@
         <v>4675</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2049</v>
+        <v>1410</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>6510</v>
@@ -1187,7 +1187,7 @@
         <v>0.7180630423361073</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.314789111344289</v>
+        <v>0.2165568100972768</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1199,7 +1199,7 @@
         <v>6085</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3414</v>
+        <v>3259</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>7266</v>
@@ -1208,7 +1208,7 @@
         <v>0.8374100544966934</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4698819586263862</v>
+        <v>0.4484814935750652</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1220,19 +1220,19 @@
         <v>10759</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7155</v>
+        <v>7689</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12960</v>
+        <v>13121</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7810133490425276</v>
+        <v>0.7810133490425278</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5194171104795722</v>
+        <v>0.5581495271542524</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9407751975579928</v>
+        <v>0.9524565796272526</v>
       </c>
     </row>
     <row r="12">
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6573</v>
+        <v>7383</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5061370001172766</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8862213517563008</v>
+        <v>0.9953732998361136</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1345,19 +1345,19 @@
         <v>4670</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1424</v>
+        <v>1450</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8581</v>
+        <v>8340</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3895404798860857</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1187804874569676</v>
+        <v>0.1209028427775059</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7157050131362352</v>
+        <v>0.6956734825951599</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -1366,19 +1366,19 @@
         <v>8424</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3349</v>
+        <v>3698</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13511</v>
+        <v>13927</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.434102983004186</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1725873213452139</v>
+        <v>0.1905602328894311</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6962881927857343</v>
+        <v>0.7177086560422439</v>
       </c>
     </row>
     <row r="14">
@@ -1395,7 +1395,7 @@
         <v>3663</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>831</v>
+        <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>7417</v>
@@ -1404,7 +1404,7 @@
         <v>0.4938629998827234</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1119859755345239</v>
+        <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1416,19 +1416,19 @@
         <v>7319</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3408</v>
+        <v>3649</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10565</v>
+        <v>10539</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6104595201139142</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2842949868637647</v>
+        <v>0.3043265174048401</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8812195125430324</v>
+        <v>0.8790971572224943</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -1437,19 +1437,19 @@
         <v>10981</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5894</v>
+        <v>5478</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>16056</v>
+        <v>15707</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5658970169958139</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3037118072142657</v>
+        <v>0.2822913439577561</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8274126786547863</v>
+        <v>0.8094397671105691</v>
       </c>
     </row>
     <row r="15">
@@ -1690,16 +1690,16 @@
         <v>2604</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>4246</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.6133923401921099</v>
+        <v>0.6133923401921096</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1787423331263878</v>
+        <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1</v>
@@ -1711,19 +1711,19 @@
         <v>2647</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>828</v>
+        <v>934</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4983</v>
+        <v>5155</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3846150425029027</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1203370813541313</v>
+        <v>0.1356271730339132</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7240154418647885</v>
+        <v>0.7488744219536008</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -1732,19 +1732,19 @@
         <v>5252</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2432</v>
+        <v>2717</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8019</v>
+        <v>8240</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4719040244199897</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2185418865733149</v>
+        <v>0.244173522753661</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7205832086688269</v>
+        <v>0.7404465766205188</v>
       </c>
     </row>
     <row r="20">
@@ -1767,7 +1767,7 @@
         <v>3500</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3866076598078903</v>
+        <v>0.3866076598078902</v>
       </c>
       <c r="H20" s="6" t="n">
         <v>0</v>
@@ -1782,19 +1782,19 @@
         <v>4236</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1900</v>
+        <v>1728</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6055</v>
+        <v>5949</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6153849574970973</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.275984558135212</v>
+        <v>0.251125578046399</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8796629186458689</v>
+        <v>0.8643728269660866</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -1803,19 +1803,19 @@
         <v>5877</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3110</v>
+        <v>2889</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8697</v>
+        <v>8412</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5280959755800102</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.279416791331173</v>
+        <v>0.2595534233794812</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7814581134266848</v>
+        <v>0.7558264772463388</v>
       </c>
     </row>
     <row r="21">
@@ -1907,16 +1907,16 @@
         <v>4391</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1954</v>
+        <v>1157</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>6475</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6781358967938461</v>
+        <v>0.678135896793846</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3017866079982057</v>
+        <v>0.1787411278115092</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -1928,19 +1928,19 @@
         <v>12096</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7750</v>
+        <v>7373</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15185</v>
+        <v>14991</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7246418113309947</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4642789744377254</v>
+        <v>0.4417224800412882</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9097471464971745</v>
+        <v>0.8980720907875105</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -1949,19 +1949,19 @@
         <v>16486</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11463</v>
+        <v>10982</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>20265</v>
+        <v>20137</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.711644134181976</v>
+        <v>0.7116441341819759</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4948211053535272</v>
+        <v>0.4740403772537813</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8747765860463499</v>
+        <v>0.8692635538847953</v>
       </c>
     </row>
     <row r="23">
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4495</v>
+        <v>5269</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3218641032061539</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6942650549992009</v>
+        <v>0.8137913069002071</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -1999,19 +1999,19 @@
         <v>4596</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1507</v>
+        <v>1701</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8942</v>
+        <v>9319</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2753581886690054</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0902528535028255</v>
+        <v>0.1019279092124896</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5357210255622747</v>
+        <v>0.5582775199587121</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7</v>
@@ -2020,19 +2020,19 @@
         <v>6680</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2901</v>
+        <v>3029</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>11703</v>
+        <v>12184</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.2883558658180241</v>
+        <v>0.288355865818024</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1252234139536499</v>
+        <v>0.1307364461152053</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.505178894646473</v>
+        <v>0.5259596227462189</v>
       </c>
     </row>
     <row r="24">
@@ -2124,16 +2124,16 @@
         <v>34491</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>29905</v>
+        <v>29158</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>36768</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.9380738441939066</v>
+        <v>0.9380738441939064</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.813350972578579</v>
+        <v>0.7930219463947088</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>1</v>
@@ -2145,7 +2145,7 @@
         <v>31396</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>28645</v>
+        <v>28402</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>32189</v>
@@ -2154,7 +2154,7 @@
         <v>0.9753586282872533</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8898896839858318</v>
+        <v>0.8823385713830203</v>
       </c>
       <c r="P25" s="6" t="n">
         <v>1</v>
@@ -2166,19 +2166,19 @@
         <v>65887</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>60603</v>
+        <v>60309</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>68185</v>
+        <v>68167</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.9554783639867136</v>
+        <v>0.9554783639867139</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8788578738821369</v>
+        <v>0.8745937138186444</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9887997112163578</v>
+        <v>0.9885370655180482</v>
       </c>
     </row>
     <row r="26">
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6863</v>
+        <v>7610</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06192615580609346</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1866490274214198</v>
+        <v>0.2069780536052909</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3544</v>
+        <v>3787</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02464137171274672</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1101103160141684</v>
+        <v>0.11766142861698</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3</v>
@@ -2237,19 +2237,19 @@
         <v>3070</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>772</v>
+        <v>790</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>8354</v>
+        <v>8648</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.04452163601328611</v>
+        <v>0.04452163601328613</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01120028878364231</v>
+        <v>0.01146293448195163</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1211421261178629</v>
+        <v>0.1254062861813559</v>
       </c>
     </row>
     <row r="27">
@@ -2341,19 +2341,19 @@
         <v>48431</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>39295</v>
+        <v>39933</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>55019</v>
+        <v>55357</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.7405637963648647</v>
+        <v>0.7405637963648646</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6008553891463776</v>
+        <v>0.6106134999653916</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.841299306443912</v>
+        <v>0.8464627812411638</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>66</v>
@@ -2362,19 +2362,19 @@
         <v>57488</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>45593</v>
+        <v>46634</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>66349</v>
+        <v>66147</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.6831159730803701</v>
+        <v>0.6831159730803698</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5417748955117776</v>
+        <v>0.5541382881047628</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7884200031595532</v>
+        <v>0.7860167445398134</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>106</v>
@@ -2383,19 +2383,19 @@
         <v>105918</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>90778</v>
+        <v>92261</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>116379</v>
+        <v>117817</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7082372794859382</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6069984283283187</v>
+        <v>0.6169141318415606</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7781867596031098</v>
+        <v>0.7878024720754364</v>
       </c>
     </row>
     <row r="29">
@@ -2412,19 +2412,19 @@
         <v>16967</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>10379</v>
+        <v>10041</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>26103</v>
+        <v>25465</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2594362036351355</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.158700693556088</v>
+        <v>0.1535372187588361</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.399144610853623</v>
+        <v>0.3893865000346081</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>26</v>
@@ -2433,19 +2433,19 @@
         <v>26667</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>17806</v>
+        <v>18008</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>38562</v>
+        <v>37521</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.3168840269196301</v>
+        <v>0.31688402691963</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2115799968404467</v>
+        <v>0.2139832554601866</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4582251044882228</v>
+        <v>0.4458617118952369</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>41</v>
@@ -2454,19 +2454,19 @@
         <v>43634</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>33173</v>
+        <v>31735</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>58774</v>
+        <v>57291</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2917627205140618</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2218132403968901</v>
+        <v>0.2121975279245635</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.393001571671681</v>
+        <v>0.3830858681584395</v>
       </c>
     </row>
     <row r="30">
